--- a/数据整理/stocks/A股/深证主板/000811-冰轮环境.xlsx
+++ b/数据整理/stocks/A股/深证主板/000811-冰轮环境.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -811,7 +812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -822,17 +823,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -842,13 +863,179 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1891</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -E</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1891</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>5.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000811-冰轮环境.xlsx
+++ b/数据整理/stocks/A股/深证主板/000811-冰轮环境.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,37 +463,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -503,36 +483,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001306</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧永裕混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>71.45</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.21</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.2799</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="3">
@@ -541,264 +499,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>166011</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧盛世成长混合 (LOF) -A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.46</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.25</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4476</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>013049</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>兴业能源革新股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12.41</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.05</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4219</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>013050</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>兴业能源革新股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.05</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1707</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010460</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>兴业研究精选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.26</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1112</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001888</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中欧盛世成长混合 (LOF) -E</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.25</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0354</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004233</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中欧盛世成长混合 (LOF) -C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.25</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0342</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001307</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧永裕混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.21</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0323</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.53</v>
       </c>
     </row>
   </sheetData>
@@ -982,7 +690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,17 +701,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1013,14 +741,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2799</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.39</v>
       </c>
     </row>
     <row r="3">
@@ -1029,14 +779,264 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.53</v>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4476</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013049</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4219</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013050</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1707</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -E</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000811-冰轮环境.xlsx
+++ b/数据整理/stocks/A股/深证主板/000811-冰轮环境.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,11 +484,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>0.39</v>
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>8</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>5.53</v>
       </c>
     </row>
@@ -515,6 +532,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1886</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013049</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015784</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015785</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -684,7 +909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
